--- a/biology/Zoologie/Eulemur/Eulemur.xlsx
+++ b/biology/Zoologie/Eulemur/Eulemur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eulemur est un genre de primates lémuriformes de la famille des Lemuridae. Comme tous les lémuriens, ses représentants sont endémiques de Madagascar et des îles attenantes.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre sont communément appelés eulémurs, « lémurs vrais » ou makis. 
 La fourrure des eulémuriens est longue et souvent brun rougeâtre. Le dimorphisme sexuel dans la coloration est courant (dichromatisme sexuel), comme chez le lémur noir. Les eulémurs mesurent entre 30 et 50 cm de long, avec une queue égale ou significativement plus longue que le corps. Ils pèsent de deux à quatre kilos.
@@ -546,9 +560,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (5 septembre 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (5 septembre 2017) :
 Eulemur albifrons (É. Geoffroy Saint-Hilaire, 1796)
 Eulemur cinereiceps (A. Grandidier &amp; A. Milne-Edwards, 1890)
 Eulemur collaris (É. Geoffroy Saint-Hilaire, 1812)
